--- a/output_table/final_out_cell_count.xlsx
+++ b/output_table/final_out_cell_count.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
   <si>
     <t>CA1</t>
   </si>
@@ -23,31 +23,22 @@
     <t>CA3</t>
   </si>
   <si>
+    <t>Хилус</t>
+  </si>
+  <si>
+    <t>Зубчатая фасция</t>
+  </si>
+  <si>
+    <t>p_val</t>
+  </si>
+  <si>
+    <t>u_stat</t>
+  </si>
+  <si>
     <t>Hilus</t>
   </si>
   <si>
     <t>DG</t>
-  </si>
-  <si>
-    <t>Group</t>
-  </si>
-  <si>
-    <t>Контроль</t>
-  </si>
-  <si>
-    <t>ЭС</t>
-  </si>
-  <si>
-    <t>Test</t>
-  </si>
-  <si>
-    <t>P-Val</t>
-  </si>
-  <si>
-    <t>U-stat</t>
-  </si>
-  <si>
-    <t>Mann-Whitney-Wilcoxon test two-sided</t>
   </si>
   <si>
     <t>1.207e-06</t>
@@ -429,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,128 +439,56 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0.25</v>
       </c>
       <c r="B2">
-        <v>11.96</v>
+        <v>10.39</v>
       </c>
       <c r="C2">
-        <v>12.67</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="D2">
-        <v>12.87</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="E2">
-        <v>21.68</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>20.98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>0.5</v>
       </c>
       <c r="B3">
-        <v>12.64</v>
+        <v>12.07</v>
       </c>
       <c r="C3">
-        <v>15.12</v>
+        <v>12.26</v>
       </c>
       <c r="D3">
-        <v>13.66</v>
+        <v>12.66</v>
       </c>
       <c r="E3">
-        <v>24.61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>23.76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>0.75</v>
       </c>
       <c r="B4">
-        <v>13.5</v>
+        <v>13.12</v>
       </c>
       <c r="C4">
-        <v>16.8</v>
+        <v>15.44</v>
       </c>
       <c r="D4">
-        <v>14.14</v>
+        <v>13.85</v>
       </c>
       <c r="E4">
-        <v>25.79</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>0.25</v>
-      </c>
-      <c r="B5">
-        <v>9.27</v>
-      </c>
-      <c r="C5">
-        <v>7.88</v>
-      </c>
-      <c r="D5">
-        <v>8.43</v>
-      </c>
-      <c r="E5">
-        <v>20.6</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="B6">
-        <v>10.32</v>
-      </c>
-      <c r="C6">
-        <v>9.26</v>
-      </c>
-      <c r="D6">
-        <v>9.52</v>
-      </c>
-      <c r="E6">
-        <v>21.65</v>
-      </c>
-      <c r="F6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="B7">
-        <v>10.87</v>
-      </c>
-      <c r="C7">
-        <v>10.34</v>
-      </c>
-      <c r="D7">
-        <v>10.54</v>
-      </c>
-      <c r="E7">
-        <v>24.82</v>
-      </c>
-      <c r="F7" t="s">
-        <v>6</v>
+        <v>25.49</v>
       </c>
     </row>
   </sheetData>
@@ -579,77 +498,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="B1" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
